--- a/Exercise - Forecasts - FOR CANDIDATE-SENT - SHORT.xlsx
+++ b/Exercise - Forecasts - FOR CANDIDATE-SENT - SHORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustinferreira/Desktop/Novartis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556F214-933E-9847-A37D-EC05314DB176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9527EB-F8FA-EE4F-A81D-7DA72FE607E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2020" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country 1 - Brand A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Wednesday</t>
   </si>
@@ -93,91 +93,79 @@
     <t>CANDIDATE NAME</t>
   </si>
   <si>
-    <t>262014,4375-301087</t>
-  </si>
-  <si>
-    <t>249104,46875-296001,90625</t>
-  </si>
-  <si>
-    <t>245762,640625-294417,84375</t>
-  </si>
-  <si>
-    <t>247170,46875-295383,90625</t>
-  </si>
-  <si>
-    <t>254661,296875-298478,5</t>
-  </si>
-  <si>
-    <t>257450,734375-298796,1875</t>
-  </si>
-  <si>
-    <t>242743,953125-293949,0625</t>
-  </si>
-  <si>
-    <t>244193,34375-292522,09375</t>
-  </si>
-  <si>
-    <t>243771,9375-292717,6875</t>
-  </si>
-  <si>
-    <t>240162,59375-289260,34375</t>
-  </si>
-  <si>
-    <t>237241,84375-285199,0625</t>
-  </si>
-  <si>
-    <t>236989,140625-284893,6875</t>
-  </si>
-  <si>
-    <t>277469,09375-335604,59375</t>
-  </si>
-  <si>
-    <t>277274,34375-340465,65625</t>
-  </si>
-  <si>
-    <t>275945,71875-343747,46875</t>
-  </si>
-  <si>
-    <t>276081,4375-343694,625</t>
-  </si>
-  <si>
-    <t>276064-343593,9375</t>
-  </si>
-  <si>
-    <t>275247,9375-346189,375</t>
-  </si>
-  <si>
-    <t>273944,5-347309,8125</t>
-  </si>
-  <si>
-    <t>273294,53125-344638,21875</t>
-  </si>
-  <si>
-    <t>213381,234375-262327,59375</t>
-  </si>
-  <si>
-    <t>196773,3125-264590,84375</t>
-  </si>
-  <si>
-    <t>199133,671875-266483,0625</t>
-  </si>
-  <si>
-    <t>201316,265625-264862,6875</t>
-  </si>
-  <si>
-    <t>200152,5-263390,5</t>
-  </si>
-  <si>
-    <t>199825,75-263092,34375</t>
-  </si>
-  <si>
-    <t>197081,125-260639,96875</t>
-  </si>
-  <si>
     <t>Confidence column corresponds to the 95% Upper and Lower Confidence Intervals</t>
   </si>
   <si>
     <t>Agustin Ferreira Pose</t>
+  </si>
+  <si>
+    <t>266523,125-304106,625</t>
+  </si>
+  <si>
+    <t>252106,59375-300820,59375</t>
+  </si>
+  <si>
+    <t>245162,578125-301064,40625</t>
+  </si>
+  <si>
+    <t>256724,546875-300622,6875</t>
+  </si>
+  <si>
+    <t>278087,875-302119,75</t>
+  </si>
+  <si>
+    <t>267595,5625-303842,3125</t>
+  </si>
+  <si>
+    <t>288192,5-331665,375</t>
+  </si>
+  <si>
+    <t>288570,4375-332378,1875</t>
+  </si>
+  <si>
+    <t>286536,125-332167,375</t>
+  </si>
+  <si>
+    <t>281125,375-305007,8125</t>
+  </si>
+  <si>
+    <t>280994,84375-305091,46875</t>
+  </si>
+  <si>
+    <t>290692,875-339381,625</t>
+  </si>
+  <si>
+    <t>290443,03125-339542,40625</t>
+  </si>
+  <si>
+    <t>290429,28125-339539,96875</t>
+  </si>
+  <si>
+    <t>290484,75-339724,125</t>
+  </si>
+  <si>
+    <t>290063,5-339487,5625</t>
+  </si>
+  <si>
+    <t>217422,09375-265801,3125</t>
+  </si>
+  <si>
+    <t>217502,734375-266081,0625</t>
+  </si>
+  <si>
+    <t>219433,21875-272223,8125</t>
+  </si>
+  <si>
+    <t>217789,125-267094,28125</t>
+  </si>
+  <si>
+    <t>217783,9375-266919,84375</t>
+  </si>
+  <si>
+    <t>217761,53125-267162,15625</t>
+  </si>
+  <si>
+    <t>211953,875-254307</t>
   </si>
 </sst>
 </file>
@@ -582,8 +570,8 @@
   </sheetPr>
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -622,7 +610,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -745,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>281550.71875</v>
+        <v>285314.875</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -762,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>272553.1875</v>
+        <v>276463.59375</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -779,13 +767,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="4">
-        <v>270090.25</v>
+        <v>273113.5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -796,13 +784,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="4">
-        <v>271277.1875</v>
+        <v>278673.625</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -813,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="4">
-        <v>276569.90625</v>
+        <v>290103.8125</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -830,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <v>278123.46875</v>
+        <v>285718.9375</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -851,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>268346.5</v>
+        <v>309928.9375</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -868,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="4">
-        <v>268357.71875</v>
+        <v>310474.3125</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -885,13 +873,13 @@
         <v>4</v>
       </c>
       <c r="E26" s="4">
-        <v>268244.8125</v>
+        <v>310474.3125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
@@ -902,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>264711.46875</v>
+        <v>309351.75</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
@@ -919,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4">
-        <v>261220.453125</v>
+        <v>293066.59375</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
@@ -936,13 +924,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="4">
-        <v>260941.421875</v>
+        <v>293043.15625</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -957,13 +945,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="4">
-        <v>306536.84375</v>
+        <v>315037.25</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -974,13 +962,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="4">
-        <v>308870</v>
+        <v>314992.71875</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -991,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>309846.59375</v>
+        <v>314992.71875</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
@@ -1008,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="4">
-        <v>309888.03125</v>
+        <v>314992.71875</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1025,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="4">
-        <v>309888.03125</v>
+        <v>314992.71875</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
@@ -1042,13 +1030,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="4">
-        <v>309828.96875</v>
+        <v>314992.71875</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -1059,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="4">
-        <v>310718.65625</v>
+        <v>314984.625</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -1076,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>310627.15625</v>
+        <v>315104.4375</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1093,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="4">
-        <v>308966.375</v>
+        <v>314775.53125</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -1114,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="4">
-        <v>237854.421875</v>
+        <v>241611.703125</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
@@ -1131,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="4">
-        <v>230682.078125</v>
+        <v>241791.890625</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -1148,13 +1136,13 @@
         <v>3</v>
       </c>
       <c r="E43" s="4">
-        <v>232808.375</v>
+        <v>245828.515625</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -1165,13 +1153,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="4">
-        <v>233089.484375</v>
+        <v>242441.703125</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
@@ -1182,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>231771.5</v>
+        <v>242351.890625</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
@@ -1199,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>231459.046875</v>
+        <v>242461.84375</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
@@ -1216,13 +1204,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="4">
-        <v>228860.546875</v>
+        <v>233130.4375</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
